--- a/escolas/rui barbosa/9A.xlsx
+++ b/escolas/rui barbosa/9A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\rui barbosa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\rui barbosa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5C34F-F086-4F09-A066-7EE8E26CC418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBC45D-198D-4963-BE27-17B57AFFF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3240" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -139,12 +139,21 @@
   </si>
   <si>
     <t>Gabriel Lima</t>
+  </si>
+  <si>
+    <t>Antonio ADM</t>
+  </si>
+  <si>
+    <t>Pedro ADM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,7 +218,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,10 +543,10 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>5543991249214</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>5543991648812</v>
       </c>
     </row>
@@ -540,10 +554,10 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>5543991846231</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>5514997258450</v>
       </c>
     </row>
@@ -551,44 +565,44 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>5543988622531</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>5543999761383</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>5543998591842</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>5543998630180</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>5543991938026</v>
       </c>
     </row>
@@ -596,8 +610,8 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
         <v>5543998004543</v>
       </c>
     </row>
@@ -605,10 +619,10 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>5543991593026</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>5543991519375</v>
       </c>
     </row>
@@ -616,10 +630,10 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>5543999779473</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>5543988557507</v>
       </c>
     </row>
@@ -627,10 +641,10 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>5543996238925</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>5543996658222</v>
       </c>
     </row>
@@ -638,51 +652,51 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>5543996629430</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>5543998696022</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>5543999336580</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>5543998112886</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
         <v>5543999119526</v>
       </c>
     </row>
@@ -690,10 +704,10 @@
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>5543996707164</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>5543999178943</v>
       </c>
     </row>
@@ -701,8 +715,8 @@
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
         <v>5543996048814</v>
       </c>
     </row>
@@ -710,19 +724,19 @@
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>5543991584929</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>5543988631013</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>5543988333919</v>
       </c>
     </row>
@@ -730,10 +744,10 @@
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>5543999091168</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>5543998398865</v>
       </c>
     </row>
@@ -741,10 +755,10 @@
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>5543991848807</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>5543998232071</v>
       </c>
     </row>
@@ -752,26 +766,26 @@
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
         <v>5543991840308</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>5543991153522</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>5543999017549</v>
       </c>
     </row>
@@ -779,10 +793,10 @@
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>5543991702806</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>5543991789493</v>
       </c>
     </row>
@@ -790,10 +804,10 @@
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>5543998030225</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>5543992740190</v>
       </c>
     </row>
@@ -801,10 +815,10 @@
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>5543996100501</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>5543998091901</v>
       </c>
     </row>
@@ -812,10 +826,10 @@
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>5511970274905</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>5511984389359</v>
       </c>
     </row>
@@ -823,10 +837,10 @@
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>5543984926610</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>5543991260444</v>
       </c>
     </row>
@@ -834,10 +848,10 @@
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>5543991017631</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>5543984825947</v>
       </c>
     </row>
@@ -845,21 +859,44 @@
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>5543996722896</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>5543996194054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="6">
+        <v>554384356465</v>
+      </c>
+      <c r="C37" s="6">
+        <v>554384356465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="6">
+        <v>5543996440402</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5543996440402</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>